--- a/Spectral_Linter/Document/Spectral_linter.xlsx
+++ b/Spectral_Linter/Document/Spectral_linter.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary_Capabilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary_Capabilities" sheetId="5" r:id="rId1"/>
     <sheet name="Vendor_list" sheetId="2" r:id="rId2"/>
     <sheet name="Vendors_pros_cons" sheetId="3" r:id="rId3"/>
+    <sheet name="Spectral_Linter" sheetId="7" r:id="rId4"/>
+    <sheet name="Speccy" sheetId="1" r:id="rId5"/>
+    <sheet name="Zally" sheetId="8" r:id="rId6"/>
+    <sheet name="Oas-kit" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
   <si>
     <t>Sl No</t>
   </si>
@@ -424,6 +428,108 @@
   </si>
   <si>
     <t>o It uses Apache License 2.0</t>
+  </si>
+  <si>
+    <t>Spectral Linter Capability Analysis</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Core Functions</t>
+  </si>
+  <si>
+    <t>Ruleset / Functions</t>
+  </si>
+  <si>
+    <t>Spectral Linter License</t>
+  </si>
+  <si>
+    <t>https://meta.stoplight.io/docs/spectral/ZG9jOjYx-overview#-license</t>
+  </si>
+  <si>
+    <t>Spectral is 100% free and open-source, under Apache License 2.0.</t>
+  </si>
+  <si>
+    <t>Ruleset</t>
+  </si>
+  <si>
+    <t>OpenAPI V2</t>
+  </si>
+  <si>
+    <t>Implementation Methods</t>
+  </si>
+  <si>
+    <t>Spectral Capability Analysis</t>
+  </si>
+  <si>
+    <t>Speccy Linter License</t>
+  </si>
+  <si>
+    <t>MIT except the openapi-3.0.json schema, which is taken from the OpenAPI-Specification and the alternative gnostic-3.0.json schema, which is originally from Google Gnostic. Both of these are licensed under the Apache-2 license.</t>
+  </si>
+  <si>
+    <t>https://github.com/wework/speccy#license</t>
+  </si>
+  <si>
+    <t>Zally Linter Capability Analysis</t>
+  </si>
+  <si>
+    <t>Zally Linter License</t>
+  </si>
+  <si>
+    <t>MIT license with an exception.</t>
+  </si>
+  <si>
+    <t>https://github.com/zalando/zally#license</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Oas-kit Linter Capability Analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/Mermade/oas-kit/blob/main/packages/swagger2openapi/README.md</t>
+  </si>
+  <si>
+    <t>Oas-kit License</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>https://github.com/Mermade/oas-kit</t>
+  </si>
+  <si>
+    <t>Create custom rules to lint JSON or YAML objects</t>
+  </si>
+  <si>
+    <t>Validate and lint OpenAPI v2 &amp; v3 and AsyncAPI Documents</t>
+  </si>
+  <si>
+    <t>Use JSON path to apply rules to specific parts of your objects</t>
+  </si>
+  <si>
+    <t>Having built-in set of functions</t>
+  </si>
+  <si>
+    <t>Create custom functions for advanced use cases</t>
+  </si>
+  <si>
+    <t>Validate JSON with Ajv</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause license</t>
+  </si>
+  <si>
+    <t>MIT license</t>
+  </si>
+  <si>
+    <t>Apache-2.0 license</t>
   </si>
 </sst>
 </file>
@@ -513,8 +619,7 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -570,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -623,7 +728,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -635,7 +743,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,20 +884,20 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B5A-4EE4-B6CD-CC302270D893}"/>
+              <c16:uniqueId val="{00000000-0996-4228-B7A5-16A0FC02EC11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,8 +1626,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1801,10 +1911,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1824,17 +1934,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1922,14 +2032,14 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>125</v>
+      <c r="F4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -1984,23 +2094,23 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>125</v>
+      <c r="F6" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="H6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2018,11 +2128,11 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>125</v>
+      <c r="F8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>125</v>
@@ -2047,11 +2157,11 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>125</v>
+      <c r="F9" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>125</v>
@@ -2076,14 +2186,14 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>125</v>
+      <c r="F10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2102,14 +2212,14 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>125</v>
+      <c r="F11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2128,14 +2238,14 @@
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>125</v>
+      <c r="F12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2154,14 +2264,14 @@
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>125</v>
+      <c r="F13" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2180,11 +2290,11 @@
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>125</v>
+      <c r="F14" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>125</v>
@@ -2215,8 +2325,8 @@
       <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>125</v>
+      <c r="H15" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>125</v>
@@ -2241,14 +2351,14 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>125</v>
+      <c r="F16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2267,14 +2377,14 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>125</v>
+      <c r="F17" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2293,14 +2403,14 @@
       <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>125</v>
+      <c r="F18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2319,11 +2429,11 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>125</v>
+      <c r="F19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>125</v>
@@ -2348,22 +2458,22 @@
       <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="F20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -2375,11 +2485,11 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>125</v>
+      <c r="D22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="16" t="s">
@@ -2388,8 +2498,8 @@
       <c r="I22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>125</v>
+      <c r="J22" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,8 +2553,8 @@
       <c r="E24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>125</v>
+      <c r="F24" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="16" t="s">
@@ -2453,8 +2563,8 @@
       <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>125</v>
+      <c r="J24" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2473,8 +2583,8 @@
       <c r="E25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>125</v>
+      <c r="F25" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>125</v>
@@ -2482,11 +2592,11 @@
       <c r="I25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>125</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,8 +2615,8 @@
       <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>125</v>
+      <c r="F26" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>125</v>
@@ -2514,8 +2624,8 @@
       <c r="I26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>125</v>
+      <c r="J26" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -2527,13 +2637,13 @@
         <v>20.5</v>
       </c>
       <c r="F29" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H29" s="3">
         <v>6.5</v>
       </c>
       <c r="J29" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2593,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,19 +2714,21 @@
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="22.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="95" style="11" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="51.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2627,10 +2739,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2640,11 +2755,14 @@
       <c r="C3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2654,11 +2772,14 @@
       <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2668,11 +2789,14 @@
       <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2682,11 +2806,14 @@
       <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2696,11 +2823,14 @@
       <c r="C7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2710,11 +2840,14 @@
       <c r="C8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2724,11 +2857,14 @@
       <c r="C9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2738,23 +2874,26 @@
       <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2763,15 +2902,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" style="10" customWidth="1"/>
@@ -2779,12 +2918,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2801,7 +2940,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2815,7 +2954,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2829,7 +2968,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2843,7 +2982,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2857,7 +2996,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2868,6 +3007,47 @@
       </c>
       <c r="D7" s="10" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2876,4 +3056,996 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" location="-license"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5" location="alphabetical"/>
+    <hyperlink ref="E12" r:id="rId6" location="pattern"/>
+    <hyperlink ref="E13" r:id="rId7" location="length"/>
+    <hyperlink ref="E14" r:id="rId8" location="enumeration"/>
+    <hyperlink ref="E15" r:id="rId9" location="falsy"/>
+    <hyperlink ref="E16" r:id="rId10" location="casing"/>
+    <hyperlink ref="E17" r:id="rId11" location="schema"/>
+    <hyperlink ref="E18" r:id="rId12" location="truthy"/>
+    <hyperlink ref="E19" r:id="rId13" location="defined"/>
+    <hyperlink ref="E20" r:id="rId14" location="undefined"/>
+    <hyperlink ref="E21" r:id="rId15" location="unreferencedreusableobject"/>
+    <hyperlink ref="E22" r:id="rId16" location="xor"/>
+    <hyperlink ref="E23" r:id="rId17" location="typedenum"/>
+    <hyperlink ref="E25" r:id="rId18" location="-installation-and-Usage"/>
+    <hyperlink ref="E27" r:id="rId19"/>
+    <hyperlink ref="E26" r:id="rId20" location="docker"/>
+    <hyperlink ref="E6" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" location="license"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3" location="usage"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5" location="web-ui"/>
+    <hyperlink ref="E12" r:id="rId6" location="features"/>
+    <hyperlink ref="E4" r:id="rId7" location="license"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Spectral_Linter/Document/Spectral_linter.xlsx
+++ b/Spectral_Linter/Document/Spectral_linter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Capabilities" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="163">
   <si>
     <t>Sl No</t>
   </si>
@@ -380,56 +380,9 @@
     <t>Cons</t>
   </si>
   <si>
-    <t xml:space="preserve">o It is unmaintained.
-o It is validated only by openapi V3.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o It is able to convert openapi v2 into openapi v3.
-o It is able to convert JSON into YAML and YAML into JSON files.
-o It provides 11 visual studio commands for operation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o It is used only in Visual Studio.
-o Custom rulesets and functions cannot be added.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o It is able to convert openapi v2 into openapi v3.
-o It is able to convert JSON into YAML and YAML into JSON files.
-</t>
-  </si>
-  <si>
-    <t>o Custom rulesets and functions cannot be added.</t>
-  </si>
-  <si>
-    <t>o It made use of the MIT License.
-o It has predefined rules against openapi.
-o It has supported the custom rules also.</t>
-  </si>
-  <si>
-    <t>o It made use of the MIT License.
-o OpenAPI 3 and OpenAPI 2 specifications are supported.
-o Swagger-friendly: accepts Swagger .yaml and JSON formats; includes a server that lints your Swagger files; and parses Swagger files using swagger-parser
-o Applying rule changes is only necessary in the server component
-o API-specific code written in Java 8 with Spring Boot for better integration</t>
-  </si>
-  <si>
-    <t>o Custom functions cannot be added.</t>
-  </si>
-  <si>
-    <t>o Capable to use custom ruleset and custom function
-o Having predefined function to save everyone the effort of writing function for common tasks
-o Support NPM, Executable Binaries and Docker files</t>
-  </si>
-  <si>
     <t>•</t>
   </si>
   <si>
-    <t>o It uses Apache License 2.0</t>
-  </si>
-  <si>
     <t>Spectral Linter Capability Analysis</t>
   </si>
   <si>
@@ -505,24 +458,6 @@
     <t>https://github.com/Mermade/oas-kit</t>
   </si>
   <si>
-    <t>Create custom rules to lint JSON or YAML objects</t>
-  </si>
-  <si>
-    <t>Validate and lint OpenAPI v2 &amp; v3 and AsyncAPI Documents</t>
-  </si>
-  <si>
-    <t>Use JSON path to apply rules to specific parts of your objects</t>
-  </si>
-  <si>
-    <t>Having built-in set of functions</t>
-  </si>
-  <si>
-    <t>Create custom functions for advanced use cases</t>
-  </si>
-  <si>
-    <t>Validate JSON with Ajv</t>
-  </si>
-  <si>
     <t>BSD-3-Clause license</t>
   </si>
   <si>
@@ -530,6 +465,77 @@
   </si>
   <si>
     <t>Apache-2.0 license</t>
+  </si>
+  <si>
+    <t>It is unmaintained.</t>
+  </si>
+  <si>
+    <t>It is validated only by openapi V3.</t>
+  </si>
+  <si>
+    <t>Speccy file is 12824 lines long and does not contain a single $ref. No links are used anywhere in this file so it is hard to analyze how the response connected to another response</t>
+  </si>
+  <si>
+    <t>zally</t>
+  </si>
+  <si>
+    <t>Not supporting custom function</t>
+  </si>
+  <si>
+    <t>• Validate and lint OpenAPI v2 &amp; v3 and AsyncAPI Documents</t>
+  </si>
+  <si>
+    <t>• Use JSON path to apply rules to specific parts of your objects</t>
+  </si>
+  <si>
+    <t>• Having built-in set of functions</t>
+  </si>
+  <si>
+    <t>• Create custom functions for advanced use cases</t>
+  </si>
+  <si>
+    <t>• Validate JSON with Ajv</t>
+  </si>
+  <si>
+    <t>• It has predefined rules against openapi.</t>
+  </si>
+  <si>
+    <t>• As a linter, it can provide opinions, advice, and suggestions more than just “is this valid or not”</t>
+  </si>
+  <si>
+    <t>•  Speccy can offer a preview of your specifications, in human-readable format</t>
+  </si>
+  <si>
+    <t>• zally will validate APIs against Zalando’s REST guidelines,</t>
+  </si>
+  <si>
+    <t>• Zallly comes equipped with a range of implementation options: RESTful API, CLI, and a web interface.</t>
+  </si>
+  <si>
+    <t>• Supports API-First approach</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Create custom rules to lint JSON or YAML objects</t>
+    </r>
+  </si>
+  <si>
+    <t>Linter Vendor Pros and Cons</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -744,6 +750,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1992,25 +2001,25 @@
         <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>61</v>
@@ -2027,19 +2036,19 @@
         <v>81</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2054,25 +2063,25 @@
         <v>82</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>62</v>
@@ -2089,20 +2098,20 @@
         <v>83</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2123,19 +2132,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>63</v>
@@ -2152,19 +2161,19 @@
         <v>21</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>63</v>
@@ -2181,19 +2190,19 @@
         <v>24</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2207,19 +2216,19 @@
         <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2233,19 +2242,19 @@
         <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2259,19 +2268,19 @@
         <v>33</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2285,19 +2294,19 @@
         <v>36</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>63</v>
@@ -2314,22 +2323,22 @@
         <v>39</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>63</v>
@@ -2346,19 +2355,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2372,19 +2381,19 @@
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2398,19 +2407,19 @@
         <v>48</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2424,19 +2433,19 @@
         <v>51</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>63</v>
@@ -2453,19 +2462,19 @@
         <v>54</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2486,20 +2495,20 @@
         <v>84</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,25 +2522,25 @@
         <v>85</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>71</v>
@@ -2548,23 +2557,23 @@
         <v>86</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2578,25 +2587,25 @@
         <v>76</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,22 +2619,22 @@
         <v>88</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -2705,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -2756,7 +2765,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>107</v>
@@ -2773,7 +2782,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>108</v>
@@ -2790,7 +2799,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>109</v>
@@ -2807,7 +2816,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>110</v>
@@ -2824,7 +2833,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>79</v>
@@ -2841,7 +2850,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>111</v>
@@ -2858,7 +2867,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>112</v>
@@ -2875,7 +2884,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>113</v>
@@ -2902,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,13 +2922,13 @@
     <col min="1" max="1" width="9.140625" style="19"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="51" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2932,127 +2941,138 @@
       <c r="B2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="C3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="C9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B12" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3080,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3092,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3106,7 +3126,7 @@
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3117,21 +3137,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -3142,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3159,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3207,7 +3227,7 @@
     </row>
     <row r="10" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -3218,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -3235,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -3252,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
@@ -3269,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
@@ -3286,7 +3306,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
@@ -3303,7 +3323,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
@@ -3320,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>35</v>
@@ -3337,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
@@ -3354,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>41</v>
@@ -3371,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
@@ -3388,7 +3408,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>47</v>
@@ -3405,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
@@ -3422,7 +3442,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>53</v>
@@ -3447,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>68</v>
@@ -3464,7 +3484,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>87</v>
@@ -3481,7 +3501,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>75</v>
@@ -3551,7 +3571,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3563,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3577,7 +3597,7 @@
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3588,21 +3608,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -3613,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3630,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3655,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>68</v>
@@ -3707,7 +3727,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3719,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3733,7 +3753,7 @@
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3744,21 +3764,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -3769,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -3786,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3811,7 +3831,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -3828,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>68</v>
@@ -3845,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>72</v>
@@ -3862,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>75</v>
@@ -3917,7 +3937,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3929,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3943,7 +3963,7 @@
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3954,21 +3974,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -3979,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -4004,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>68</v>
@@ -4021,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>75</v>
@@ -4030,7 +4050,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Spectral_Linter/Document/Spectral_linter.xlsx
+++ b/Spectral_Linter/Document/Spectral_linter.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="152">
   <si>
     <t>Sl No</t>
   </si>
@@ -467,52 +467,10 @@
     <t>Apache-2.0 license</t>
   </si>
   <si>
-    <t>It is unmaintained.</t>
-  </si>
-  <si>
-    <t>It is validated only by openapi V3.</t>
-  </si>
-  <si>
-    <t>Speccy file is 12824 lines long and does not contain a single $ref. No links are used anywhere in this file so it is hard to analyze how the response connected to another response</t>
-  </si>
-  <si>
     <t>zally</t>
   </si>
   <si>
-    <t>Not supporting custom function</t>
-  </si>
-  <si>
-    <t>• Validate and lint OpenAPI v2 &amp; v3 and AsyncAPI Documents</t>
-  </si>
-  <si>
-    <t>• Use JSON path to apply rules to specific parts of your objects</t>
-  </si>
-  <si>
-    <t>• Having built-in set of functions</t>
-  </si>
-  <si>
-    <t>• Create custom functions for advanced use cases</t>
-  </si>
-  <si>
-    <t>• Validate JSON with Ajv</t>
-  </si>
-  <si>
-    <t>• It has predefined rules against openapi.</t>
-  </si>
-  <si>
-    <t>• As a linter, it can provide opinions, advice, and suggestions more than just “is this valid or not”</t>
-  </si>
-  <si>
-    <t>•  Speccy can offer a preview of your specifications, in human-readable format</t>
-  </si>
-  <si>
-    <t>• zally will validate APIs against Zalando’s REST guidelines,</t>
-  </si>
-  <si>
-    <t>• Zallly comes equipped with a range of implementation options: RESTful API, CLI, and a web interface.</t>
-  </si>
-  <si>
-    <t>• Supports API-First approach</t>
+    <t>Linter Vendor Pros and Cons</t>
   </si>
   <si>
     <r>
@@ -531,11 +489,31 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> Create custom rules to lint JSON or YAML objects</t>
+      <t xml:space="preserve"> Create custom rules to lint JSON or YAML objects
+• Validate and lint OpenAPI v2 &amp; v3 and AsyncAPI Documents
+• Use JSON path to apply rules to specific parts of your objects
+• Having built-in set of functions
+• Create custom functions for advanced use cases
+• Validate JSON with Ajv</t>
     </r>
   </si>
   <si>
-    <t>Linter Vendor Pros and Cons</t>
+    <t>• It has predefined rules against openapi.
+• As a linter, it can provide opinions, advice, and suggestions more than just “is this valid or not”
+• Speccy can offer a preview of your specifications, in human-readable format</t>
+  </si>
+  <si>
+    <t>• It is unmaintained.
+• It is validated only by openapi V3.
+• Speccy file is 12824 lines long and does not contain a single $ref. No links are used anywhere in this file so it is hard to analyze how the response connected to another response</t>
+  </si>
+  <si>
+    <t>• zally will validate APIs against Zalando’s REST guidelines
+• Zallly comes equipped with a range of implementation options: RESTful API, CLI, and a web interface.
+• Supports API-First approach</t>
+  </si>
+  <si>
+    <t>• Not supporting custom function</t>
   </si>
 </sst>
 </file>
@@ -681,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -740,6 +718,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,11 +730,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1943,17 +1923,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2041,13 +2021,13 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="F4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>136</v>
       </c>
       <c r="K4" s="1"/>
@@ -2103,23 +2083,23 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="H6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2137,10 +2117,10 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2166,10 +2146,10 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2195,13 +2175,13 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="F10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2221,13 +2201,13 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="23" t="s">
+      <c r="F11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2247,13 +2227,13 @@
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="23" t="s">
+      <c r="F12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2273,13 +2253,13 @@
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="23" t="s">
+      <c r="F13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2299,10 +2279,10 @@
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="F14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J14" s="17" t="s">
@@ -2334,7 +2314,7 @@
       <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J15" s="17" t="s">
@@ -2360,13 +2340,13 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="F16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2386,13 +2366,13 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="23" t="s">
+      <c r="F17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2412,13 +2392,13 @@
       <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="F18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2438,10 +2418,10 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="F19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>136</v>
       </c>
       <c r="J19" s="17" t="s">
@@ -2467,22 +2447,22 @@
       <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="23" t="s">
+      <c r="F20" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -2494,10 +2474,10 @@
       <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G22" s="1"/>
@@ -2507,7 +2487,7 @@
       <c r="I22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2562,7 +2542,7 @@
       <c r="E24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G24" s="1"/>
@@ -2572,7 +2552,7 @@
       <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2592,7 +2572,7 @@
       <c r="E25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="20" t="s">
         <v>136</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2624,7 +2604,7 @@
       <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="20" t="s">
         <v>136</v>
       </c>
       <c r="H26" s="17" t="s">
@@ -2633,7 +2613,7 @@
       <c r="I26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="20" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="1"/>
@@ -2729,13 +2709,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2913,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,12 +2907,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2948,57 +2928,47 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -3007,65 +2977,53 @@
       <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>145</v>
+      <c r="C9" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A1:D1"/>
@@ -3073,6 +3031,12 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3099,13 +3063,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3125,12 +3089,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3150,12 +3114,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -3226,12 +3190,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -3455,12 +3419,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -3570,13 +3534,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3596,12 +3560,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3621,12 +3585,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -3663,12 +3627,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -3726,13 +3690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3752,12 +3716,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3777,12 +3741,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -3819,12 +3783,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -3936,13 +3900,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3962,12 +3926,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3987,12 +3951,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4012,12 +3976,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
